--- a/dialog.xlsx
+++ b/dialog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162">
   <si>
     <t>question</t>
   </si>
@@ -497,27 +497,11 @@
     <t>线下店的指导方案</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">1.020线上线下销售结合；
+    <t>1.020线上线下销售结合；
 2.智能型销售（无人收银、智能型客服、大数据分析、节约大量成本）；
 3.社交型销售（客户交流重要性、机器人与人性重要性）；
 4.物联网快速配货（成本控制、产品单件生产与快递投送、传统电商公司核心-用批发价格做零售）。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>管理、资本、技术企业三要素</t>
-    </r>
+管理、资本、技术企业三要素</t>
   </si>
   <si>
     <t>门店店员培训</t>
@@ -530,30 +514,14 @@
     <t>工商、法律法规风险控制建议</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1建议客户与当地工商保持良好关系；
+    <t>1建议客户与当地工商保持良好关系；
 2据我们众多门店客户反馈来的信息，没有一家化妆品店因为工商问题被关闭；
 3药品属于高风险建议不做、保健品有风险少做或不做；
-4日韩化妆品可做一般贸易产品；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
+4日韩化妆品可做一般贸易产品；
 5日本化妆品的药妆要谨慎；
 6欧美产品做，高货值商品少陈列或者空盒陈列，朋友圈展示，标注陈列品，无背景不陈列；
 7高货值、大库存商品分开存放；
 8提供中文标识，降低风险。</t>
-    </r>
   </si>
   <si>
     <t>税、发票</t>
@@ -725,6 +693,12 @@
     <t>线下店陈列请联系我们客服</t>
   </si>
   <si>
+    <t>如何定价、卖多少、售价、销售价格、供货价，定价原则</t>
+  </si>
+  <si>
+    <t>定价原则：定价需结合货的九个因素，人的九个因素综合定价。首先是货+9 原则:(1) 市场成本, (2) 采购成本, (3) 热卖程度, (4) 供需关系, (5) 采购难度, (6) 清关时效, (7) 汇率, (8) 库存情况, (9) 货品类型.  然后要考虑人+9原则：（一） 客户类型, (二) 提货量, (三) 合作时间, (四) 门店规模, (五) 客户区域, (六) 合作关系, (七) 提供服务的程度, (八) 客户对产品品质要求, (九) 客户信用度（付款时效、对我们的信任程度、客户的人品态度）。</t>
+  </si>
+  <si>
     <t>end</t>
   </si>
 </sst>
@@ -733,10 +707,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -776,6 +750,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -783,7 +787,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -798,18 +802,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -829,38 +834,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -874,23 +856,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -905,14 +879,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -945,7 +919,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,7 +967,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -969,7 +1009,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,19 +1081,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1005,127 +1093,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1157,8 +1131,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1174,30 +1181,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1228,26 +1211,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1256,152 +1230,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1484,6 +1458,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1805,10 +1782,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G146"/>
+  <dimension ref="A1:G147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="C146" sqref="C146"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="A147" sqref="A147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -3547,15 +3524,26 @@
       <c r="F145" s="16"/>
       <c r="G145" s="16"/>
     </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="5" t="s">
-        <v>159</v>
+    <row r="146" ht="70" spans="1:3">
+      <c r="A146" s="5">
+        <v>45</v>
       </c>
       <c r="B146" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C146" s="6" t="s">
-        <v>159</v>
+      <c r="C146" s="28" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
